--- a/data_suhu/september/11-09-23-Lokasi2.xlsx
+++ b/data_suhu/september/11-09-23-Lokasi2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josev\Downloads\magang_res\data_suhu\september\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josev\Downloads\magang_res_cloned\data_suhu\september\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FFB563-6948-4B73-B79C-742A37AA7A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48341658-AB62-4BB2-BB6D-A9D2531DC1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="2" r:id="rId1"/>
@@ -1133,19 +1133,184 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1172,193 +1337,28 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1884,8 +1884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CS96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="BF20" sqref="BF20"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="AZ66" sqref="AZ66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2015,12 +2015,12 @@
       <c r="C2" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
       <c r="J2" s="1"/>
       <c r="M2" s="1"/>
       <c r="P2" s="1"/>
@@ -2215,114 +2215,114 @@
       </c>
     </row>
     <row r="7" spans="1:97" s="2" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="105" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="75" t="s">
+      <c r="C7" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="74" t="s">
+      <c r="H7" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="74"/>
-      <c r="J7" s="80" t="s">
+      <c r="I7" s="75"/>
+      <c r="J7" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="81"/>
-      <c r="S7" s="81"/>
-      <c r="T7" s="81"/>
-      <c r="U7" s="81"/>
-      <c r="V7" s="81"/>
-      <c r="W7" s="81"/>
-      <c r="X7" s="81"/>
-      <c r="Y7" s="81"/>
-      <c r="Z7" s="81"/>
-      <c r="AA7" s="81"/>
-      <c r="AB7" s="81"/>
-      <c r="AC7" s="81"/>
-      <c r="AD7" s="81"/>
-      <c r="AE7" s="81"/>
-      <c r="AF7" s="81"/>
-      <c r="AG7" s="81"/>
-      <c r="AH7" s="81"/>
-      <c r="AI7" s="81"/>
-      <c r="AJ7" s="81"/>
-      <c r="AK7" s="81"/>
-      <c r="AL7" s="81"/>
-      <c r="AM7" s="82"/>
-      <c r="AN7" s="60" t="s">
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="83"/>
+      <c r="S7" s="83"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="83"/>
+      <c r="V7" s="83"/>
+      <c r="W7" s="83"/>
+      <c r="X7" s="83"/>
+      <c r="Y7" s="83"/>
+      <c r="Z7" s="83"/>
+      <c r="AA7" s="83"/>
+      <c r="AB7" s="83"/>
+      <c r="AC7" s="83"/>
+      <c r="AD7" s="83"/>
+      <c r="AE7" s="83"/>
+      <c r="AF7" s="83"/>
+      <c r="AG7" s="83"/>
+      <c r="AH7" s="83"/>
+      <c r="AI7" s="83"/>
+      <c r="AJ7" s="83"/>
+      <c r="AK7" s="83"/>
+      <c r="AL7" s="83"/>
+      <c r="AM7" s="84"/>
+      <c r="AN7" s="108" t="s">
         <v>109</v>
       </c>
-      <c r="AO7" s="60"/>
-      <c r="AP7" s="60"/>
-      <c r="AQ7" s="60"/>
-      <c r="AR7" s="60"/>
-      <c r="AS7" s="60"/>
-      <c r="AT7" s="60"/>
-      <c r="AU7" s="60"/>
-      <c r="AV7" s="60"/>
-      <c r="AW7" s="75" t="s">
+      <c r="AO7" s="108"/>
+      <c r="AP7" s="108"/>
+      <c r="AQ7" s="108"/>
+      <c r="AR7" s="108"/>
+      <c r="AS7" s="108"/>
+      <c r="AT7" s="108"/>
+      <c r="AU7" s="108"/>
+      <c r="AV7" s="108"/>
+      <c r="AW7" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="AX7" s="75" t="s">
+      <c r="AX7" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="AY7" s="44" t="s">
+      <c r="AY7" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="AZ7" s="45"/>
-      <c r="BA7" s="91" t="s">
+      <c r="AZ7" s="100"/>
+      <c r="BA7" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="BB7" s="91" t="s">
+      <c r="BB7" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="BC7" s="48" t="s">
+      <c r="BC7" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="BD7" s="49"/>
-      <c r="BE7" s="61" t="s">
+      <c r="BD7" s="104"/>
+      <c r="BE7" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BF7" s="62"/>
-      <c r="BG7" s="89" t="s">
+      <c r="BF7" s="43"/>
+      <c r="BG7" s="60" t="s">
         <v>67</v>
       </c>
       <c r="BH7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="BI7" s="57" t="s">
+      <c r="BI7" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="BJ7" s="58"/>
-      <c r="BK7" s="59"/>
+      <c r="BJ7" s="54"/>
+      <c r="BK7" s="55"/>
       <c r="BL7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="BM7" s="99" t="s">
+      <c r="BM7" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="BN7" s="100"/>
+      <c r="BN7" s="57"/>
       <c r="BO7" s="11" t="s">
         <v>33</v>
       </c>
@@ -2335,229 +2335,229 @@
       <c r="BR7" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="BS7" s="105" t="s">
+      <c r="BS7" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="BT7" s="103"/>
-      <c r="BU7" s="61" t="s">
+      <c r="BT7" s="40"/>
+      <c r="BU7" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="BV7" s="62"/>
-      <c r="BW7" s="109" t="s">
+      <c r="BV7" s="43"/>
+      <c r="BW7" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="BX7" s="110"/>
-      <c r="BY7" s="57" t="s">
+      <c r="BX7" s="46"/>
+      <c r="BY7" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="BZ7" s="58"/>
-      <c r="CA7" s="59"/>
-      <c r="CB7" s="83" t="s">
+      <c r="BZ7" s="54"/>
+      <c r="CA7" s="55"/>
+      <c r="CB7" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="CC7" s="84"/>
-      <c r="CD7" s="84"/>
-      <c r="CE7" s="84"/>
-      <c r="CF7" s="84"/>
-      <c r="CG7" s="84"/>
-      <c r="CH7" s="84"/>
-      <c r="CI7" s="84"/>
-      <c r="CJ7" s="84"/>
-      <c r="CK7" s="84"/>
-      <c r="CL7" s="84"/>
-      <c r="CM7" s="84"/>
-      <c r="CN7" s="84"/>
-      <c r="CO7" s="84"/>
-      <c r="CP7" s="84"/>
-      <c r="CQ7" s="84"/>
-      <c r="CR7" s="85"/>
+      <c r="CC7" s="86"/>
+      <c r="CD7" s="86"/>
+      <c r="CE7" s="86"/>
+      <c r="CF7" s="86"/>
+      <c r="CG7" s="86"/>
+      <c r="CH7" s="86"/>
+      <c r="CI7" s="86"/>
+      <c r="CJ7" s="86"/>
+      <c r="CK7" s="86"/>
+      <c r="CL7" s="86"/>
+      <c r="CM7" s="86"/>
+      <c r="CN7" s="86"/>
+      <c r="CO7" s="86"/>
+      <c r="CP7" s="86"/>
+      <c r="CQ7" s="86"/>
+      <c r="CR7" s="87"/>
       <c r="CS7" s="38" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:97" s="2" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="101"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="78" t="s">
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="I8" s="78" t="s">
+      <c r="I8" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="J8" s="39" t="s">
+      <c r="J8" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="41" t="s">
+      <c r="K8" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="42"/>
-      <c r="M8" s="39" t="s">
+      <c r="L8" s="77"/>
+      <c r="M8" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="41" t="s">
+      <c r="N8" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="42"/>
-      <c r="P8" s="39" t="s">
+      <c r="O8" s="77"/>
+      <c r="P8" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="Q8" s="41" t="s">
+      <c r="Q8" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="R8" s="42"/>
-      <c r="S8" s="39" t="s">
+      <c r="R8" s="77"/>
+      <c r="S8" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="T8" s="41" t="s">
+      <c r="T8" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="U8" s="42"/>
-      <c r="V8" s="39" t="s">
+      <c r="U8" s="77"/>
+      <c r="V8" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="W8" s="41" t="s">
+      <c r="W8" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="39" t="s">
+      <c r="X8" s="77"/>
+      <c r="Y8" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="Z8" s="41" t="s">
+      <c r="Z8" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="AA8" s="42"/>
-      <c r="AB8" s="39" t="s">
+      <c r="AA8" s="77"/>
+      <c r="AB8" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="AC8" s="41" t="s">
+      <c r="AC8" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="AD8" s="42"/>
-      <c r="AE8" s="39" t="s">
+      <c r="AD8" s="77"/>
+      <c r="AE8" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="AF8" s="41" t="s">
+      <c r="AF8" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="AG8" s="42"/>
-      <c r="AH8" s="39" t="s">
+      <c r="AG8" s="77"/>
+      <c r="AH8" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="AI8" s="41" t="s">
+      <c r="AI8" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="AJ8" s="42"/>
-      <c r="AK8" s="39" t="s">
+      <c r="AJ8" s="77"/>
+      <c r="AK8" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="AL8" s="41" t="s">
+      <c r="AL8" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="AM8" s="42"/>
-      <c r="AN8" s="39" t="s">
+      <c r="AM8" s="77"/>
+      <c r="AN8" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="AO8" s="41" t="s">
+      <c r="AO8" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="AP8" s="42"/>
-      <c r="AQ8" s="39" t="s">
+      <c r="AP8" s="77"/>
+      <c r="AQ8" s="81" t="s">
         <v>106</v>
       </c>
-      <c r="AR8" s="41" t="s">
+      <c r="AR8" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="AS8" s="42"/>
-      <c r="AT8" s="39" t="s">
+      <c r="AS8" s="77"/>
+      <c r="AT8" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="AU8" s="93" t="s">
+      <c r="AU8" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AV8" s="93"/>
-      <c r="AW8" s="102"/>
-      <c r="AX8" s="102"/>
-      <c r="AY8" s="46"/>
-      <c r="AZ8" s="47"/>
-      <c r="BA8" s="92"/>
-      <c r="BB8" s="92"/>
-      <c r="BC8" s="50"/>
-      <c r="BD8" s="51"/>
-      <c r="BE8" s="63"/>
-      <c r="BF8" s="64"/>
-      <c r="BG8" s="90"/>
+      <c r="AV8" s="94"/>
+      <c r="AW8" s="63"/>
+      <c r="AX8" s="63"/>
+      <c r="AY8" s="101"/>
+      <c r="AZ8" s="102"/>
+      <c r="BA8" s="93"/>
+      <c r="BB8" s="93"/>
+      <c r="BC8" s="105"/>
+      <c r="BD8" s="106"/>
+      <c r="BE8" s="109"/>
+      <c r="BF8" s="110"/>
+      <c r="BG8" s="91"/>
       <c r="BH8" s="18" t="s">
         <v>50</v>
       </c>
       <c r="BI8" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="BJ8" s="53" t="s">
+      <c r="BJ8" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="BK8" s="54"/>
-      <c r="BL8" s="43" t="s">
+      <c r="BK8" s="59"/>
+      <c r="BL8" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="BM8" s="53" t="s">
+      <c r="BM8" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="BN8" s="54"/>
-      <c r="BO8" s="43" t="s">
+      <c r="BN8" s="59"/>
+      <c r="BO8" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="BP8" s="97" t="s">
+      <c r="BP8" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="BQ8" s="43" t="s">
+      <c r="BQ8" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="BR8" s="43" t="s">
+      <c r="BR8" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="BS8" s="43" t="s">
+      <c r="BS8" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="BT8" s="43"/>
-      <c r="BU8" s="56" t="s">
+      <c r="BT8" s="41"/>
+      <c r="BU8" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="BV8" s="56"/>
-      <c r="BW8" s="43" t="s">
+      <c r="BV8" s="44"/>
+      <c r="BW8" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="BX8" s="43"/>
-      <c r="BY8" s="56" t="s">
+      <c r="BX8" s="41"/>
+      <c r="BY8" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="BZ8" s="111" t="s">
+      <c r="BZ8" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="CA8" s="112"/>
-      <c r="CB8" s="86" t="s">
+      <c r="CA8" s="48"/>
+      <c r="CB8" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="CC8" s="87"/>
-      <c r="CD8" s="87"/>
-      <c r="CE8" s="87"/>
-      <c r="CF8" s="87"/>
-      <c r="CG8" s="87"/>
-      <c r="CH8" s="87"/>
-      <c r="CI8" s="87"/>
-      <c r="CJ8" s="87"/>
-      <c r="CK8" s="87"/>
-      <c r="CL8" s="88"/>
-      <c r="CM8" s="86" t="s">
+      <c r="CC8" s="89"/>
+      <c r="CD8" s="89"/>
+      <c r="CE8" s="89"/>
+      <c r="CF8" s="89"/>
+      <c r="CG8" s="89"/>
+      <c r="CH8" s="89"/>
+      <c r="CI8" s="89"/>
+      <c r="CJ8" s="89"/>
+      <c r="CK8" s="89"/>
+      <c r="CL8" s="90"/>
+      <c r="CM8" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="CN8" s="87"/>
-      <c r="CO8" s="87"/>
-      <c r="CP8" s="88"/>
+      <c r="CN8" s="89"/>
+      <c r="CO8" s="89"/>
+      <c r="CP8" s="90"/>
       <c r="CQ8" s="13" t="s">
         <v>86</v>
       </c>
@@ -2569,241 +2569,241 @@
       </c>
     </row>
     <row r="9" spans="1:97" s="2" customFormat="1" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="101"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="40"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="69"/>
       <c r="K9" s="29" t="s">
         <v>101</v>
       </c>
       <c r="L9" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="M9" s="40"/>
+      <c r="M9" s="69"/>
       <c r="N9" s="29" t="s">
         <v>101</v>
       </c>
       <c r="O9" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="P9" s="40"/>
+      <c r="P9" s="69"/>
       <c r="Q9" s="29" t="s">
         <v>101</v>
       </c>
       <c r="R9" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="S9" s="40"/>
+      <c r="S9" s="69"/>
       <c r="T9" s="29" t="s">
         <v>101</v>
       </c>
       <c r="U9" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="V9" s="40"/>
+      <c r="V9" s="69"/>
       <c r="W9" s="29" t="s">
         <v>101</v>
       </c>
       <c r="X9" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="Y9" s="40"/>
+      <c r="Y9" s="69"/>
       <c r="Z9" s="29" t="s">
         <v>101</v>
       </c>
       <c r="AA9" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="AB9" s="40"/>
+      <c r="AB9" s="69"/>
       <c r="AC9" s="29" t="s">
         <v>101</v>
       </c>
       <c r="AD9" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="AE9" s="40"/>
+      <c r="AE9" s="69"/>
       <c r="AF9" s="29" t="s">
         <v>101</v>
       </c>
       <c r="AG9" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="AH9" s="40"/>
+      <c r="AH9" s="69"/>
       <c r="AI9" s="29" t="s">
         <v>101</v>
       </c>
       <c r="AJ9" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="AK9" s="40"/>
+      <c r="AK9" s="69"/>
       <c r="AL9" s="29" t="s">
         <v>101</v>
       </c>
       <c r="AM9" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="AN9" s="40"/>
+      <c r="AN9" s="69"/>
       <c r="AO9" s="29" t="s">
         <v>110</v>
       </c>
       <c r="AP9" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="AQ9" s="40"/>
+      <c r="AQ9" s="69"/>
       <c r="AR9" s="29" t="s">
         <v>110</v>
       </c>
       <c r="AS9" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="AT9" s="40"/>
+      <c r="AT9" s="69"/>
       <c r="AU9" s="29" t="s">
         <v>110</v>
       </c>
       <c r="AV9" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="AW9" s="94" t="s">
+      <c r="AW9" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="AX9" s="96" t="s">
+      <c r="AX9" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="AY9" s="52" t="s">
+      <c r="AY9" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="AZ9" s="52" t="s">
+      <c r="AZ9" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="BA9" s="94" t="s">
+      <c r="BA9" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="BB9" s="96" t="s">
+      <c r="BB9" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="BC9" s="52" t="s">
+      <c r="BC9" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="BD9" s="52" t="s">
+      <c r="BD9" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="BE9" s="55" t="s">
+      <c r="BE9" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="BF9" s="55"/>
-      <c r="BG9" s="71" t="s">
+      <c r="BF9" s="107"/>
+      <c r="BG9" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="BH9" s="71" t="s">
+      <c r="BH9" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="BI9" s="72" t="s">
+      <c r="BI9" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="BJ9" s="55" t="s">
+      <c r="BJ9" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="BK9" s="55" t="s">
+      <c r="BK9" s="107" t="s">
         <v>119</v>
       </c>
-      <c r="BL9" s="43"/>
-      <c r="BM9" s="67" t="s">
+      <c r="BL9" s="41"/>
+      <c r="BM9" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="BN9" s="68"/>
-      <c r="BO9" s="43"/>
-      <c r="BP9" s="98"/>
-      <c r="BQ9" s="43"/>
-      <c r="BR9" s="43"/>
-      <c r="BS9" s="43" t="s">
+      <c r="BN9" s="98"/>
+      <c r="BO9" s="41"/>
+      <c r="BP9" s="114"/>
+      <c r="BQ9" s="41"/>
+      <c r="BR9" s="41"/>
+      <c r="BS9" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="BT9" s="43" t="s">
+      <c r="BT9" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BU9" s="56" t="s">
+      <c r="BU9" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="BV9" s="56" t="s">
+      <c r="BV9" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="BW9" s="43" t="s">
+      <c r="BW9" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="BX9" s="43" t="s">
+      <c r="BX9" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BY9" s="56"/>
-      <c r="BZ9" s="113"/>
-      <c r="CA9" s="114"/>
-      <c r="CB9" s="43" t="s">
+      <c r="BY9" s="44"/>
+      <c r="BZ9" s="49"/>
+      <c r="CA9" s="50"/>
+      <c r="CB9" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="CC9" s="43" t="s">
+      <c r="CC9" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="CD9" s="43" t="s">
+      <c r="CD9" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="CE9" s="43" t="s">
+      <c r="CE9" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="CF9" s="43" t="s">
+      <c r="CF9" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="CG9" s="43" t="s">
+      <c r="CG9" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="CH9" s="43" t="s">
+      <c r="CH9" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="CI9" s="43" t="s">
+      <c r="CI9" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="CJ9" s="43" t="s">
+      <c r="CJ9" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="CK9" s="65" t="s">
+      <c r="CK9" s="95" t="s">
         <v>123</v>
       </c>
-      <c r="CL9" s="65" t="s">
+      <c r="CL9" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="CM9" s="43" t="s">
+      <c r="CM9" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="CN9" s="43" t="s">
+      <c r="CN9" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="CO9" s="43" t="s">
+      <c r="CO9" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="CP9" s="43" t="s">
+      <c r="CP9" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="CQ9" s="65" t="s">
+      <c r="CQ9" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="CR9" s="65" t="s">
+      <c r="CR9" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="CS9" s="65" t="s">
+      <c r="CS9" s="95" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:97" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="101"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="104"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="64"/>
       <c r="G10" s="32"/>
       <c r="H10" s="27">
         <f>I10*0.293</f>
@@ -2907,59 +2907,59 @@
         <f>AU10*3.412</f>
         <v>170.6</v>
       </c>
-      <c r="AW10" s="95"/>
-      <c r="AX10" s="77"/>
-      <c r="AY10" s="40"/>
-      <c r="AZ10" s="40"/>
-      <c r="BA10" s="95"/>
-      <c r="BB10" s="77"/>
-      <c r="BC10" s="40"/>
-      <c r="BD10" s="40"/>
+      <c r="AW10" s="71"/>
+      <c r="AX10" s="73"/>
+      <c r="AY10" s="69"/>
+      <c r="AZ10" s="69"/>
+      <c r="BA10" s="71"/>
+      <c r="BB10" s="73"/>
+      <c r="BC10" s="69"/>
+      <c r="BD10" s="69"/>
       <c r="BE10" s="10" t="s">
         <v>112</v>
       </c>
       <c r="BF10" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="BG10" s="66"/>
-      <c r="BH10" s="66"/>
-      <c r="BI10" s="55"/>
-      <c r="BJ10" s="56"/>
-      <c r="BK10" s="56"/>
-      <c r="BL10" s="43"/>
-      <c r="BM10" s="69"/>
-      <c r="BN10" s="70"/>
-      <c r="BO10" s="43"/>
-      <c r="BP10" s="55"/>
-      <c r="BQ10" s="43"/>
-      <c r="BR10" s="43"/>
-      <c r="BS10" s="43"/>
-      <c r="BT10" s="43"/>
-      <c r="BU10" s="56"/>
-      <c r="BV10" s="56"/>
-      <c r="BW10" s="43"/>
-      <c r="BX10" s="43"/>
-      <c r="BY10" s="56"/>
-      <c r="BZ10" s="69"/>
-      <c r="CA10" s="70"/>
-      <c r="CB10" s="43"/>
-      <c r="CC10" s="43"/>
-      <c r="CD10" s="43"/>
-      <c r="CE10" s="43"/>
-      <c r="CF10" s="43"/>
-      <c r="CG10" s="43"/>
-      <c r="CH10" s="43"/>
-      <c r="CI10" s="43"/>
-      <c r="CJ10" s="43"/>
-      <c r="CK10" s="66"/>
-      <c r="CL10" s="66"/>
-      <c r="CM10" s="43"/>
-      <c r="CN10" s="43"/>
-      <c r="CO10" s="43"/>
-      <c r="CP10" s="43"/>
-      <c r="CQ10" s="66"/>
-      <c r="CR10" s="66"/>
-      <c r="CS10" s="66"/>
+      <c r="BG10" s="96"/>
+      <c r="BH10" s="96"/>
+      <c r="BI10" s="107"/>
+      <c r="BJ10" s="44"/>
+      <c r="BK10" s="44"/>
+      <c r="BL10" s="41"/>
+      <c r="BM10" s="51"/>
+      <c r="BN10" s="52"/>
+      <c r="BO10" s="41"/>
+      <c r="BP10" s="107"/>
+      <c r="BQ10" s="41"/>
+      <c r="BR10" s="41"/>
+      <c r="BS10" s="41"/>
+      <c r="BT10" s="41"/>
+      <c r="BU10" s="44"/>
+      <c r="BV10" s="44"/>
+      <c r="BW10" s="41"/>
+      <c r="BX10" s="41"/>
+      <c r="BY10" s="44"/>
+      <c r="BZ10" s="51"/>
+      <c r="CA10" s="52"/>
+      <c r="CB10" s="41"/>
+      <c r="CC10" s="41"/>
+      <c r="CD10" s="41"/>
+      <c r="CE10" s="41"/>
+      <c r="CF10" s="41"/>
+      <c r="CG10" s="41"/>
+      <c r="CH10" s="41"/>
+      <c r="CI10" s="41"/>
+      <c r="CJ10" s="41"/>
+      <c r="CK10" s="96"/>
+      <c r="CL10" s="96"/>
+      <c r="CM10" s="41"/>
+      <c r="CN10" s="41"/>
+      <c r="CO10" s="41"/>
+      <c r="CP10" s="41"/>
+      <c r="CQ10" s="96"/>
+      <c r="CR10" s="96"/>
+      <c r="CS10" s="96"/>
     </row>
     <row r="11" spans="1:97" s="8" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
@@ -3434,11 +3434,11 @@
         <v>42.08</v>
       </c>
       <c r="AY12" s="31">
-        <v>1011</v>
+        <v>1006.77</v>
       </c>
       <c r="AZ12" s="31">
         <f>AY12/100</f>
-        <v>10.11</v>
+        <v>10.0677</v>
       </c>
       <c r="BA12" s="31">
         <v>29</v>
@@ -3494,11 +3494,11 @@
       </c>
       <c r="BO12" s="1">
         <f>AZ12</f>
-        <v>10.11</v>
+        <v>10.0677</v>
       </c>
       <c r="BP12" s="25">
         <f>((BN12/BL12)^2)*BO12</f>
-        <v>10.11</v>
+        <v>10.0677</v>
       </c>
       <c r="BQ12" s="3">
         <v>5</v>
@@ -3795,11 +3795,11 @@
         <v>42.08</v>
       </c>
       <c r="AY13" s="31">
-        <v>1011</v>
+        <v>1006.77</v>
       </c>
       <c r="AZ13" s="31">
-        <f t="shared" ref="AZ13:AZ16" si="32">AY13/100</f>
-        <v>10.11</v>
+        <f t="shared" ref="AZ13:AZ76" si="32">AY13/100</f>
+        <v>10.0677</v>
       </c>
       <c r="BA13" s="31">
         <v>29</v>
@@ -3855,11 +3855,11 @@
       </c>
       <c r="BO13" s="1">
         <f t="shared" ref="BO13:BO16" si="40">AZ13</f>
-        <v>10.11</v>
+        <v>10.0677</v>
       </c>
       <c r="BP13" s="25">
         <f>((BN13/BL13)^2)*BO13</f>
-        <v>10.11</v>
+        <v>10.0677</v>
       </c>
       <c r="BQ13" s="3">
         <v>5</v>
@@ -4156,11 +4156,11 @@
         <v>42.08</v>
       </c>
       <c r="AY14" s="31">
-        <v>1011</v>
+        <v>1006.77</v>
       </c>
       <c r="AZ14" s="31">
         <f t="shared" si="32"/>
-        <v>10.11</v>
+        <v>10.0677</v>
       </c>
       <c r="BA14" s="31">
         <v>29</v>
@@ -4216,11 +4216,11 @@
       </c>
       <c r="BO14" s="1">
         <f t="shared" si="40"/>
-        <v>10.11</v>
+        <v>10.0677</v>
       </c>
       <c r="BP14" s="25">
         <f>((BN14/BL14)^2)*BO14</f>
-        <v>16.38937810614242</v>
+        <v>16.320805337211677</v>
       </c>
       <c r="BQ14" s="3">
         <v>5</v>
@@ -4517,11 +4517,11 @@
         <v>42.08</v>
       </c>
       <c r="AY15" s="31">
-        <v>1011</v>
+        <v>1006.77</v>
       </c>
       <c r="AZ15" s="31">
         <f t="shared" si="32"/>
-        <v>10.11</v>
+        <v>10.0677</v>
       </c>
       <c r="BA15" s="31">
         <v>29</v>
@@ -4577,11 +4577,11 @@
       </c>
       <c r="BO15" s="1">
         <f t="shared" si="40"/>
-        <v>10.11</v>
+        <v>10.0677</v>
       </c>
       <c r="BP15" s="25">
         <f>((BN15/BL15)^2)*BO15</f>
-        <v>10.121085271966722</v>
+        <v>10.078738891451966</v>
       </c>
       <c r="BQ15" s="3">
         <v>5</v>
@@ -4878,11 +4878,11 @@
         <v>42.08</v>
       </c>
       <c r="AY16" s="31">
-        <v>1011</v>
+        <v>1006.77</v>
       </c>
       <c r="AZ16" s="31">
         <f t="shared" si="32"/>
-        <v>10.11</v>
+        <v>10.0677</v>
       </c>
       <c r="BA16" s="31">
         <v>29</v>
@@ -4938,11 +4938,11 @@
       </c>
       <c r="BO16" s="1">
         <f t="shared" si="40"/>
-        <v>10.11</v>
+        <v>10.0677</v>
       </c>
       <c r="BP16" s="25">
         <f>((BN16/BL16)^2)*BO16</f>
-        <v>16.3927042494023</v>
+        <v>16.324117563967114</v>
       </c>
       <c r="BQ16" s="3">
         <v>5</v>
@@ -5127,6 +5127,13 @@
       </c>
       <c r="AX17" s="31">
         <v>41.75</v>
+      </c>
+      <c r="AY17" s="31">
+        <v>1006.71</v>
+      </c>
+      <c r="AZ17" s="31">
+        <f t="shared" si="32"/>
+        <v>10.0671</v>
       </c>
       <c r="BE17" s="16"/>
       <c r="BF17" s="16"/>
@@ -5195,6 +5202,13 @@
       </c>
       <c r="AX18" s="31">
         <v>41.67</v>
+      </c>
+      <c r="AY18" s="31">
+        <v>1006.65</v>
+      </c>
+      <c r="AZ18" s="31">
+        <f t="shared" si="32"/>
+        <v>10.0665</v>
       </c>
       <c r="BE18" s="16"/>
       <c r="BF18" s="16"/>
@@ -5252,6 +5266,13 @@
       <c r="AX19" s="31">
         <v>41.53</v>
       </c>
+      <c r="AY19" s="31">
+        <v>1006.6</v>
+      </c>
+      <c r="AZ19" s="31">
+        <f t="shared" si="32"/>
+        <v>10.066000000000001</v>
+      </c>
       <c r="BE19" s="16"/>
       <c r="BF19" s="16"/>
       <c r="BG19" s="19"/>
@@ -5308,6 +5329,13 @@
       <c r="AX20" s="31">
         <v>40.68</v>
       </c>
+      <c r="AY20" s="31">
+        <v>1006.47</v>
+      </c>
+      <c r="AZ20" s="31">
+        <f t="shared" si="32"/>
+        <v>10.0647</v>
+      </c>
       <c r="BE20" s="16"/>
       <c r="BF20" s="16"/>
       <c r="BG20" s="19"/>
@@ -5364,6 +5392,13 @@
       <c r="AX21" s="31">
         <v>41.65</v>
       </c>
+      <c r="AY21" s="31">
+        <v>1006.58</v>
+      </c>
+      <c r="AZ21" s="31">
+        <f t="shared" si="32"/>
+        <v>10.065800000000001</v>
+      </c>
       <c r="BE21" s="16"/>
       <c r="BF21" s="16"/>
       <c r="BG21" s="19"/>
@@ -5420,6 +5455,13 @@
       <c r="AX22" s="31">
         <v>41.5</v>
       </c>
+      <c r="AY22" s="31">
+        <v>1006.59</v>
+      </c>
+      <c r="AZ22" s="31">
+        <f t="shared" si="32"/>
+        <v>10.065900000000001</v>
+      </c>
       <c r="BE22" s="16"/>
       <c r="BF22" s="16"/>
       <c r="BG22" s="19"/>
@@ -5476,6 +5518,13 @@
       <c r="AX23" s="31">
         <v>40.57</v>
       </c>
+      <c r="AY23" s="31">
+        <v>1006.51</v>
+      </c>
+      <c r="AZ23" s="31">
+        <f t="shared" si="32"/>
+        <v>10.065099999999999</v>
+      </c>
       <c r="BE23" s="16"/>
       <c r="BF23" s="16"/>
       <c r="BG23" s="19"/>
@@ -5526,6 +5575,13 @@
       <c r="AX24" s="31">
         <v>41.02</v>
       </c>
+      <c r="AY24" s="31">
+        <v>1006.55</v>
+      </c>
+      <c r="AZ24" s="31">
+        <f t="shared" si="32"/>
+        <v>10.0655</v>
+      </c>
     </row>
     <row r="25" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -5546,6 +5602,13 @@
       <c r="AX25" s="31">
         <v>41.19</v>
       </c>
+      <c r="AY25" s="31">
+        <v>1006.61</v>
+      </c>
+      <c r="AZ25" s="31">
+        <f t="shared" si="32"/>
+        <v>10.0661</v>
+      </c>
     </row>
     <row r="26" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -5566,6 +5629,13 @@
       <c r="AX26" s="31">
         <v>41.35</v>
       </c>
+      <c r="AY26" s="31">
+        <v>1006.68</v>
+      </c>
+      <c r="AZ26" s="31">
+        <f t="shared" si="32"/>
+        <v>10.066799999999999</v>
+      </c>
     </row>
     <row r="27" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -5586,6 +5656,13 @@
       <c r="AX27" s="31">
         <v>40.98</v>
       </c>
+      <c r="AY27" s="31">
+        <v>1006.68</v>
+      </c>
+      <c r="AZ27" s="31">
+        <f t="shared" si="32"/>
+        <v>10.066799999999999</v>
+      </c>
     </row>
     <row r="28" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -5606,6 +5683,13 @@
       <c r="AX28" s="31">
         <v>41.39</v>
       </c>
+      <c r="AY28" s="31">
+        <v>1006.75</v>
+      </c>
+      <c r="AZ28" s="31">
+        <f t="shared" si="32"/>
+        <v>10.067500000000001</v>
+      </c>
     </row>
     <row r="29" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -5626,6 +5710,13 @@
       <c r="AX29" s="31">
         <v>41.42</v>
       </c>
+      <c r="AY29" s="31">
+        <v>1006.77</v>
+      </c>
+      <c r="AZ29" s="31">
+        <f t="shared" si="32"/>
+        <v>10.0677</v>
+      </c>
     </row>
     <row r="30" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -5646,6 +5737,13 @@
       <c r="AX30" s="31">
         <v>41.44</v>
       </c>
+      <c r="AY30" s="31">
+        <v>1006.76</v>
+      </c>
+      <c r="AZ30" s="31">
+        <f t="shared" si="32"/>
+        <v>10.067600000000001</v>
+      </c>
     </row>
     <row r="31" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -5666,6 +5764,13 @@
       <c r="AX31" s="31">
         <v>41.49</v>
       </c>
+      <c r="AY31" s="31">
+        <v>1006.82</v>
+      </c>
+      <c r="AZ31" s="31">
+        <f t="shared" si="32"/>
+        <v>10.068200000000001</v>
+      </c>
     </row>
     <row r="32" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -5686,8 +5791,15 @@
       <c r="AX32" s="31">
         <v>41.55</v>
       </c>
-    </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY32" s="31">
+        <v>1006.87</v>
+      </c>
+      <c r="AZ32" s="31">
+        <f t="shared" si="32"/>
+        <v>10.0687</v>
+      </c>
+    </row>
+    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -5706,8 +5818,15 @@
       <c r="AX33" s="31">
         <v>41.55</v>
       </c>
-    </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY33" s="31">
+        <v>1006.8</v>
+      </c>
+      <c r="AZ33" s="31">
+        <f t="shared" si="32"/>
+        <v>10.068</v>
+      </c>
+    </row>
+    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -5726,8 +5845,15 @@
       <c r="AX34" s="31">
         <v>41.55</v>
       </c>
-    </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY34" s="31">
+        <v>1006.8</v>
+      </c>
+      <c r="AZ34" s="31">
+        <f t="shared" si="32"/>
+        <v>10.068</v>
+      </c>
+    </row>
+    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -5746,8 +5872,15 @@
       <c r="AX35" s="31">
         <v>41.55</v>
       </c>
-    </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY35" s="31">
+        <v>1006.8</v>
+      </c>
+      <c r="AZ35" s="31">
+        <f t="shared" si="32"/>
+        <v>10.068</v>
+      </c>
+    </row>
+    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -5766,8 +5899,15 @@
       <c r="AX36" s="31">
         <v>41.53</v>
       </c>
-    </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY36" s="31">
+        <v>1007.04</v>
+      </c>
+      <c r="AZ36" s="31">
+        <f t="shared" si="32"/>
+        <v>10.070399999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -5786,8 +5926,15 @@
       <c r="AX37" s="31">
         <v>41.59</v>
       </c>
-    </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY37" s="31">
+        <v>1007.19</v>
+      </c>
+      <c r="AZ37" s="31">
+        <f t="shared" si="32"/>
+        <v>10.071900000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -5806,8 +5953,15 @@
       <c r="AX38" s="31">
         <v>41.59</v>
       </c>
-    </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY38" s="31">
+        <v>1007.19</v>
+      </c>
+      <c r="AZ38" s="31">
+        <f t="shared" si="32"/>
+        <v>10.071900000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -5826,8 +5980,15 @@
       <c r="AX39" s="31">
         <v>41.59</v>
       </c>
-    </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY39" s="31">
+        <v>1007.19</v>
+      </c>
+      <c r="AZ39" s="31">
+        <f t="shared" si="32"/>
+        <v>10.071900000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1</v>
       </c>
@@ -5846,8 +6007,15 @@
       <c r="AX40" s="31">
         <v>41.59</v>
       </c>
-    </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY40" s="31">
+        <v>1007.19</v>
+      </c>
+      <c r="AZ40" s="31">
+        <f t="shared" si="32"/>
+        <v>10.071900000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1</v>
       </c>
@@ -5866,8 +6034,15 @@
       <c r="AX41" s="31">
         <v>42</v>
       </c>
-    </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY41" s="31">
+        <v>1007.4</v>
+      </c>
+      <c r="AZ41" s="31">
+        <f t="shared" si="32"/>
+        <v>10.074</v>
+      </c>
+    </row>
+    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1</v>
       </c>
@@ -5886,8 +6061,15 @@
       <c r="AX42" s="31">
         <v>42.03</v>
       </c>
-    </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY42" s="31">
+        <v>1007.51</v>
+      </c>
+      <c r="AZ42" s="31">
+        <f t="shared" si="32"/>
+        <v>10.075099999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1</v>
       </c>
@@ -5906,8 +6088,15 @@
       <c r="AX43" s="31">
         <v>42.03</v>
       </c>
-    </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY43" s="31">
+        <v>1007.51</v>
+      </c>
+      <c r="AZ43" s="31">
+        <f t="shared" si="32"/>
+        <v>10.075099999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1</v>
       </c>
@@ -5926,8 +6115,15 @@
       <c r="AX44" s="31">
         <v>42.34</v>
       </c>
-    </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY44" s="31">
+        <v>1007.67</v>
+      </c>
+      <c r="AZ44" s="31">
+        <f t="shared" si="32"/>
+        <v>10.076699999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1</v>
       </c>
@@ -5946,8 +6142,15 @@
       <c r="AX45" s="31">
         <v>42.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY45" s="31">
+        <v>1007.78</v>
+      </c>
+      <c r="AZ45" s="31">
+        <f t="shared" si="32"/>
+        <v>10.0778</v>
+      </c>
+    </row>
+    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1</v>
       </c>
@@ -5966,8 +6169,15 @@
       <c r="AX46" s="31">
         <v>42.58</v>
       </c>
-    </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY46" s="31">
+        <v>1007.85</v>
+      </c>
+      <c r="AZ46" s="31">
+        <f t="shared" si="32"/>
+        <v>10.0785</v>
+      </c>
+    </row>
+    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1</v>
       </c>
@@ -5986,8 +6196,15 @@
       <c r="AX47" s="31">
         <v>42.56</v>
       </c>
-    </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY47" s="31">
+        <v>1007.8</v>
+      </c>
+      <c r="AZ47" s="31">
+        <f t="shared" si="32"/>
+        <v>10.077999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1</v>
       </c>
@@ -6006,8 +6223,15 @@
       <c r="AX48" s="31">
         <v>42.59</v>
       </c>
-    </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY48" s="31">
+        <v>1008</v>
+      </c>
+      <c r="AZ48" s="31">
+        <f t="shared" si="32"/>
+        <v>10.08</v>
+      </c>
+    </row>
+    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1</v>
       </c>
@@ -6026,8 +6250,15 @@
       <c r="AX49" s="31">
         <v>42.62</v>
       </c>
-    </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY49" s="31">
+        <v>1008.05</v>
+      </c>
+      <c r="AZ49" s="31">
+        <f t="shared" si="32"/>
+        <v>10.080499999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1</v>
       </c>
@@ -6046,8 +6277,15 @@
       <c r="AX50" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY50" s="31">
+        <v>1008.15</v>
+      </c>
+      <c r="AZ50" s="31">
+        <f t="shared" si="32"/>
+        <v>10.0815</v>
+      </c>
+    </row>
+    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>1</v>
       </c>
@@ -6066,8 +6304,15 @@
       <c r="AX51" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY51" s="31">
+        <v>1008.22</v>
+      </c>
+      <c r="AZ51" s="31">
+        <f t="shared" si="32"/>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="52" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1</v>
       </c>
@@ -6086,8 +6331,15 @@
       <c r="AX52" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY52" s="31">
+        <v>1008.22</v>
+      </c>
+      <c r="AZ52" s="31">
+        <f t="shared" si="32"/>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="53" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1</v>
       </c>
@@ -6106,8 +6358,15 @@
       <c r="AX53" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY53" s="31">
+        <v>1008.22</v>
+      </c>
+      <c r="AZ53" s="31">
+        <f t="shared" si="32"/>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="54" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1</v>
       </c>
@@ -6126,8 +6385,15 @@
       <c r="AX54" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY54" s="31">
+        <v>1008.22</v>
+      </c>
+      <c r="AZ54" s="31">
+        <f t="shared" si="32"/>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="55" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1</v>
       </c>
@@ -6146,8 +6412,15 @@
       <c r="AX55" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY55" s="31">
+        <v>1008.22</v>
+      </c>
+      <c r="AZ55" s="31">
+        <f t="shared" si="32"/>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="56" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1</v>
       </c>
@@ -6166,8 +6439,15 @@
       <c r="AX56" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="57" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY56" s="31">
+        <v>1008.22</v>
+      </c>
+      <c r="AZ56" s="31">
+        <f t="shared" si="32"/>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="57" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>1</v>
       </c>
@@ -6186,8 +6466,15 @@
       <c r="AX57" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY57" s="31">
+        <v>1008.22</v>
+      </c>
+      <c r="AZ57" s="31">
+        <f t="shared" si="32"/>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="58" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1</v>
       </c>
@@ -6206,8 +6493,15 @@
       <c r="AX58" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY58" s="31">
+        <v>1008.22</v>
+      </c>
+      <c r="AZ58" s="31">
+        <f t="shared" si="32"/>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="59" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1</v>
       </c>
@@ -6226,8 +6520,15 @@
       <c r="AX59" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY59" s="31">
+        <v>1008.22</v>
+      </c>
+      <c r="AZ59" s="31">
+        <f t="shared" si="32"/>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="60" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1</v>
       </c>
@@ -6246,8 +6547,15 @@
       <c r="AX60" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="61" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY60" s="31">
+        <v>1008.22</v>
+      </c>
+      <c r="AZ60" s="31">
+        <f t="shared" si="32"/>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="61" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1</v>
       </c>
@@ -6266,8 +6574,15 @@
       <c r="AX61" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY61" s="31">
+        <v>1008.22</v>
+      </c>
+      <c r="AZ61" s="31">
+        <f t="shared" si="32"/>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="62" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1</v>
       </c>
@@ -6286,8 +6601,15 @@
       <c r="AX62" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="63" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY62" s="31">
+        <v>1008.22</v>
+      </c>
+      <c r="AZ62" s="31">
+        <f t="shared" si="32"/>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="63" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>1</v>
       </c>
@@ -6306,8 +6628,15 @@
       <c r="AX63" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="64" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY63" s="31">
+        <v>1008.22</v>
+      </c>
+      <c r="AZ63" s="31">
+        <f t="shared" si="32"/>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="64" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1</v>
       </c>
@@ -6326,8 +6655,15 @@
       <c r="AX64" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="65" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY64" s="31">
+        <v>1008.22</v>
+      </c>
+      <c r="AZ64" s="31">
+        <f t="shared" si="32"/>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="65" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1</v>
       </c>
@@ -6346,8 +6682,15 @@
       <c r="AX65" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="66" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY65" s="31">
+        <v>1008.22</v>
+      </c>
+      <c r="AZ65" s="31">
+        <f t="shared" si="32"/>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="66" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1</v>
       </c>
@@ -6366,8 +6709,15 @@
       <c r="AX66" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="67" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY66" s="31">
+        <v>1008.22</v>
+      </c>
+      <c r="AZ66" s="31">
+        <f t="shared" si="32"/>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="67" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1</v>
       </c>
@@ -6386,8 +6736,15 @@
       <c r="AX67" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="68" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY67" s="31">
+        <v>1008.22</v>
+      </c>
+      <c r="AZ67" s="31">
+        <f t="shared" si="32"/>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="68" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1</v>
       </c>
@@ -6406,8 +6763,15 @@
       <c r="AX68" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="69" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY68" s="31">
+        <v>1008.22</v>
+      </c>
+      <c r="AZ68" s="31">
+        <f t="shared" si="32"/>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="69" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>1</v>
       </c>
@@ -6426,8 +6790,15 @@
       <c r="AX69" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="70" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY69" s="31">
+        <v>1008.22</v>
+      </c>
+      <c r="AZ69" s="31">
+        <f t="shared" si="32"/>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="70" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1</v>
       </c>
@@ -6446,8 +6817,15 @@
       <c r="AX70" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="71" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY70" s="31">
+        <v>1008.22</v>
+      </c>
+      <c r="AZ70" s="31">
+        <f t="shared" si="32"/>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="71" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1</v>
       </c>
@@ -6466,8 +6844,15 @@
       <c r="AX71" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="72" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY71" s="31">
+        <v>1008.22</v>
+      </c>
+      <c r="AZ71" s="31">
+        <f t="shared" si="32"/>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="72" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1</v>
       </c>
@@ -6486,8 +6871,15 @@
       <c r="AX72" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="73" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY72" s="31">
+        <v>1008.22</v>
+      </c>
+      <c r="AZ72" s="31">
+        <f t="shared" si="32"/>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="73" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>1</v>
       </c>
@@ -6506,8 +6898,15 @@
       <c r="AX73" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="74" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY73" s="31">
+        <v>1008.22</v>
+      </c>
+      <c r="AZ73" s="31">
+        <f t="shared" si="32"/>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="74" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>1</v>
       </c>
@@ -6526,8 +6925,15 @@
       <c r="AX74" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="75" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY74" s="31">
+        <v>1008.22</v>
+      </c>
+      <c r="AZ74" s="31">
+        <f t="shared" si="32"/>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="75" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>1</v>
       </c>
@@ -6546,8 +6952,15 @@
       <c r="AX75" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="76" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY75" s="31">
+        <v>1008.22</v>
+      </c>
+      <c r="AZ75" s="31">
+        <f t="shared" si="32"/>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="76" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>1</v>
       </c>
@@ -6566,8 +6979,15 @@
       <c r="AX76" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="77" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY76" s="31">
+        <v>1008.22</v>
+      </c>
+      <c r="AZ76" s="31">
+        <f t="shared" si="32"/>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="77" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>1</v>
       </c>
@@ -6586,8 +7006,15 @@
       <c r="AX77" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="78" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY77" s="31">
+        <v>1008.22</v>
+      </c>
+      <c r="AZ77" s="31">
+        <f t="shared" ref="AZ77:AZ96" si="55">AY77/100</f>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="78" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>1</v>
       </c>
@@ -6606,8 +7033,15 @@
       <c r="AX78" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="79" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY78" s="31">
+        <v>1008.22</v>
+      </c>
+      <c r="AZ78" s="31">
+        <f t="shared" si="55"/>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="79" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>1</v>
       </c>
@@ -6626,8 +7060,15 @@
       <c r="AX79" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="80" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY79" s="31">
+        <v>1008.22</v>
+      </c>
+      <c r="AZ79" s="31">
+        <f t="shared" si="55"/>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="80" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>1</v>
       </c>
@@ -6646,8 +7087,15 @@
       <c r="AX80" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="81" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY80" s="31">
+        <v>1008.22</v>
+      </c>
+      <c r="AZ80" s="31">
+        <f t="shared" si="55"/>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="81" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>1</v>
       </c>
@@ -6666,8 +7114,15 @@
       <c r="AX81" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="82" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY81" s="31">
+        <v>1008.22</v>
+      </c>
+      <c r="AZ81" s="31">
+        <f t="shared" si="55"/>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="82" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>1</v>
       </c>
@@ -6686,8 +7141,15 @@
       <c r="AX82" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="83" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY82" s="31">
+        <v>1008.22</v>
+      </c>
+      <c r="AZ82" s="31">
+        <f t="shared" si="55"/>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="83" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>1</v>
       </c>
@@ -6706,8 +7168,15 @@
       <c r="AX83" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="84" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY83" s="31">
+        <v>1008.22</v>
+      </c>
+      <c r="AZ83" s="31">
+        <f t="shared" si="55"/>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="84" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>1</v>
       </c>
@@ -6726,8 +7195,15 @@
       <c r="AX84" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="85" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY84" s="31">
+        <v>1008.22</v>
+      </c>
+      <c r="AZ84" s="31">
+        <f t="shared" si="55"/>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="85" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>1</v>
       </c>
@@ -6746,8 +7222,15 @@
       <c r="AX85" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="86" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY85" s="31">
+        <v>1008.22</v>
+      </c>
+      <c r="AZ85" s="31">
+        <f t="shared" si="55"/>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="86" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>1</v>
       </c>
@@ -6766,8 +7249,15 @@
       <c r="AX86" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="87" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY86" s="31">
+        <v>1008.22</v>
+      </c>
+      <c r="AZ86" s="31">
+        <f t="shared" si="55"/>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="87" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>1</v>
       </c>
@@ -6786,8 +7276,15 @@
       <c r="AX87" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="88" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY87" s="31">
+        <v>1008.22</v>
+      </c>
+      <c r="AZ87" s="31">
+        <f t="shared" si="55"/>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="88" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>1</v>
       </c>
@@ -6806,8 +7303,15 @@
       <c r="AX88" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="89" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY88" s="31">
+        <v>1008.22</v>
+      </c>
+      <c r="AZ88" s="31">
+        <f t="shared" si="55"/>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="89" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>1</v>
       </c>
@@ -6826,8 +7330,15 @@
       <c r="AX89" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="90" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY89" s="31">
+        <v>1008.22</v>
+      </c>
+      <c r="AZ89" s="31">
+        <f t="shared" si="55"/>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="90" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>1</v>
       </c>
@@ -6846,8 +7357,15 @@
       <c r="AX90" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="91" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY90" s="31">
+        <v>1008.22</v>
+      </c>
+      <c r="AZ90" s="31">
+        <f t="shared" si="55"/>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="91" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>1</v>
       </c>
@@ -6866,8 +7384,15 @@
       <c r="AX91" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="92" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY91" s="31">
+        <v>1008.22</v>
+      </c>
+      <c r="AZ91" s="31">
+        <f t="shared" si="55"/>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="92" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>1</v>
       </c>
@@ -6886,8 +7411,15 @@
       <c r="AX92" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="93" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY92" s="31">
+        <v>1008.22</v>
+      </c>
+      <c r="AZ92" s="31">
+        <f t="shared" si="55"/>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="93" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>1</v>
       </c>
@@ -6906,8 +7438,15 @@
       <c r="AX93" s="31">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="94" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY93" s="31">
+        <v>1008.22</v>
+      </c>
+      <c r="AZ93" s="31">
+        <f t="shared" si="55"/>
+        <v>10.0822</v>
+      </c>
+    </row>
+    <row r="94" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>1</v>
       </c>
@@ -6926,8 +7465,15 @@
       <c r="AX94" s="31">
         <v>43.92</v>
       </c>
-    </row>
-    <row r="95" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY94" s="31">
+        <v>1010.62</v>
+      </c>
+      <c r="AZ94" s="31">
+        <f t="shared" si="55"/>
+        <v>10.106199999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>1</v>
       </c>
@@ -6946,8 +7492,15 @@
       <c r="AX95" s="31">
         <v>43.91</v>
       </c>
-    </row>
-    <row r="96" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY95" s="31">
+        <v>1010.6</v>
+      </c>
+      <c r="AZ95" s="31">
+        <f t="shared" si="55"/>
+        <v>10.106</v>
+      </c>
+    </row>
+    <row r="96" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>1</v>
       </c>
@@ -6966,33 +7519,64 @@
       <c r="AX96" s="31">
         <v>43.91</v>
       </c>
+      <c r="AY96" s="31">
+        <v>1010.59</v>
+      </c>
+      <c r="AZ96" s="31">
+        <f t="shared" si="55"/>
+        <v>10.1059</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="BS7:BT7"/>
-    <mergeCell ref="BS8:BT8"/>
-    <mergeCell ref="BU7:BV7"/>
-    <mergeCell ref="BU8:BV8"/>
-    <mergeCell ref="BW7:BX7"/>
-    <mergeCell ref="BW8:BX8"/>
-    <mergeCell ref="BY8:BY10"/>
-    <mergeCell ref="BZ8:CA10"/>
-    <mergeCell ref="BY7:CA7"/>
-    <mergeCell ref="BQ8:BQ10"/>
-    <mergeCell ref="BR8:BR10"/>
-    <mergeCell ref="BM7:BN7"/>
-    <mergeCell ref="BM8:BN8"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="BL8:BL10"/>
-    <mergeCell ref="AW7:AW8"/>
-    <mergeCell ref="AX7:AX8"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="D7:E10"/>
-    <mergeCell ref="AY9:AY10"/>
-    <mergeCell ref="BA9:BA10"/>
-    <mergeCell ref="BB9:BB10"/>
+    <mergeCell ref="AH8:AH9"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="CJ9:CJ10"/>
+    <mergeCell ref="AY7:AZ8"/>
+    <mergeCell ref="BC7:BD8"/>
+    <mergeCell ref="BD9:BD10"/>
+    <mergeCell ref="BJ8:BK8"/>
+    <mergeCell ref="BK9:BK10"/>
+    <mergeCell ref="BI7:BK7"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AN8:AN9"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AN7:AV7"/>
+    <mergeCell ref="BE7:BF8"/>
+    <mergeCell ref="BE9:BF9"/>
+    <mergeCell ref="BV9:BV10"/>
+    <mergeCell ref="AZ9:AZ10"/>
+    <mergeCell ref="BG9:BG10"/>
+    <mergeCell ref="BH9:BH10"/>
+    <mergeCell ref="BI9:BI10"/>
+    <mergeCell ref="BJ9:BJ10"/>
+    <mergeCell ref="BO8:BO10"/>
+    <mergeCell ref="BP8:BP10"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="CQ9:CQ10"/>
+    <mergeCell ref="CR9:CR10"/>
+    <mergeCell ref="CS9:CS10"/>
+    <mergeCell ref="BC9:BC10"/>
+    <mergeCell ref="CK9:CK10"/>
+    <mergeCell ref="CL9:CL10"/>
+    <mergeCell ref="CM9:CM10"/>
+    <mergeCell ref="CN9:CN10"/>
+    <mergeCell ref="CO9:CO10"/>
+    <mergeCell ref="CP9:CP10"/>
+    <mergeCell ref="CE9:CE10"/>
+    <mergeCell ref="CF9:CF10"/>
+    <mergeCell ref="CG9:CG10"/>
+    <mergeCell ref="CH9:CH10"/>
+    <mergeCell ref="CI9:CI10"/>
+    <mergeCell ref="BW9:BW10"/>
+    <mergeCell ref="BX9:BX10"/>
+    <mergeCell ref="CB9:CB10"/>
+    <mergeCell ref="CC9:CC10"/>
+    <mergeCell ref="CD9:CD10"/>
+    <mergeCell ref="BM9:BN10"/>
+    <mergeCell ref="BS9:BS10"/>
+    <mergeCell ref="BT9:BT10"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="K8:L8"/>
@@ -7017,6 +7601,21 @@
     <mergeCell ref="AU8:AV8"/>
     <mergeCell ref="AW9:AW10"/>
     <mergeCell ref="AX9:AX10"/>
+    <mergeCell ref="BQ8:BQ10"/>
+    <mergeCell ref="BR8:BR10"/>
+    <mergeCell ref="BM7:BN7"/>
+    <mergeCell ref="BM8:BN8"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="BL8:BL10"/>
+    <mergeCell ref="AW7:AW8"/>
+    <mergeCell ref="AX7:AX8"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="D7:E10"/>
+    <mergeCell ref="AY9:AY10"/>
+    <mergeCell ref="BA9:BA10"/>
+    <mergeCell ref="BB9:BB10"/>
     <mergeCell ref="T8:U8"/>
     <mergeCell ref="V8:V9"/>
     <mergeCell ref="W8:X8"/>
@@ -7026,55 +7625,16 @@
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="P8:P9"/>
     <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="CQ9:CQ10"/>
-    <mergeCell ref="CR9:CR10"/>
-    <mergeCell ref="CS9:CS10"/>
-    <mergeCell ref="BC9:BC10"/>
-    <mergeCell ref="CK9:CK10"/>
-    <mergeCell ref="CL9:CL10"/>
-    <mergeCell ref="CM9:CM10"/>
-    <mergeCell ref="CN9:CN10"/>
-    <mergeCell ref="CO9:CO10"/>
-    <mergeCell ref="CP9:CP10"/>
-    <mergeCell ref="CE9:CE10"/>
-    <mergeCell ref="CF9:CF10"/>
-    <mergeCell ref="CG9:CG10"/>
-    <mergeCell ref="CH9:CH10"/>
-    <mergeCell ref="CI9:CI10"/>
-    <mergeCell ref="BW9:BW10"/>
-    <mergeCell ref="BX9:BX10"/>
-    <mergeCell ref="CB9:CB10"/>
-    <mergeCell ref="CC9:CC10"/>
-    <mergeCell ref="CD9:CD10"/>
-    <mergeCell ref="BM9:BN10"/>
-    <mergeCell ref="BS9:BS10"/>
-    <mergeCell ref="BT9:BT10"/>
+    <mergeCell ref="BS7:BT7"/>
+    <mergeCell ref="BS8:BT8"/>
+    <mergeCell ref="BU7:BV7"/>
+    <mergeCell ref="BU8:BV8"/>
+    <mergeCell ref="BW7:BX7"/>
+    <mergeCell ref="BW8:BX8"/>
+    <mergeCell ref="BY8:BY10"/>
+    <mergeCell ref="BZ8:CA10"/>
+    <mergeCell ref="BY7:CA7"/>
     <mergeCell ref="BU9:BU10"/>
-    <mergeCell ref="AH8:AH9"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="CJ9:CJ10"/>
-    <mergeCell ref="AY7:AZ8"/>
-    <mergeCell ref="BC7:BD8"/>
-    <mergeCell ref="BD9:BD10"/>
-    <mergeCell ref="BJ8:BK8"/>
-    <mergeCell ref="BK9:BK10"/>
-    <mergeCell ref="BI7:BK7"/>
-    <mergeCell ref="AK8:AK9"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AN8:AN9"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AN7:AV7"/>
-    <mergeCell ref="BE7:BF8"/>
-    <mergeCell ref="BE9:BF9"/>
-    <mergeCell ref="BV9:BV10"/>
-    <mergeCell ref="AZ9:AZ10"/>
-    <mergeCell ref="BG9:BG10"/>
-    <mergeCell ref="BH9:BH10"/>
-    <mergeCell ref="BI9:BI10"/>
-    <mergeCell ref="BJ9:BJ10"/>
-    <mergeCell ref="BO8:BO10"/>
-    <mergeCell ref="BP8:BP10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
